--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt7b-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt7b-Fzd1.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05619466666666666</v>
+        <v>0.05619466666666667</v>
       </c>
       <c r="H2">
         <v>0.168584</v>
       </c>
       <c r="I2">
-        <v>0.1635393031167574</v>
+        <v>0.04986276087265156</v>
       </c>
       <c r="J2">
-        <v>0.2267663493071267</v>
+        <v>0.07297477932340853</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.757644</v>
+        <v>0.8584576666666667</v>
       </c>
       <c r="N2">
-        <v>2.272932</v>
+        <v>2.575373</v>
       </c>
       <c r="O2">
-        <v>0.02401898721285653</v>
+        <v>0.02952026538348031</v>
       </c>
       <c r="P2">
-        <v>0.02518910262217759</v>
+        <v>0.03028938521394646</v>
       </c>
       <c r="Q2">
-        <v>0.042575552032</v>
+        <v>0.04824074242577778</v>
       </c>
       <c r="R2">
-        <v>0.3831799682879999</v>
+        <v>0.434166681832</v>
       </c>
       <c r="S2">
-        <v>0.003928048430360864</v>
+        <v>0.001471961933713692</v>
       </c>
       <c r="T2">
-        <v>0.005712040843953786</v>
+        <v>0.002210361201829456</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05619466666666666</v>
+        <v>0.05619466666666667</v>
       </c>
       <c r="H3">
         <v>0.168584</v>
       </c>
       <c r="I3">
-        <v>0.1635393031167574</v>
+        <v>0.04986276087265156</v>
       </c>
       <c r="J3">
-        <v>0.2267663493071267</v>
+        <v>0.07297477932340853</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,13 +623,13 @@
         <v>25.23919433333333</v>
       </c>
       <c r="N3">
-        <v>75.71758299999999</v>
+        <v>75.717583</v>
       </c>
       <c r="O3">
-        <v>0.8001381730141522</v>
+        <v>0.8679143348771993</v>
       </c>
       <c r="P3">
-        <v>0.8391179183936208</v>
+        <v>0.8905269407406087</v>
       </c>
       <c r="Q3">
         <v>1.418308112496889</v>
@@ -638,10 +638,10 @@
         <v>12.764773012472</v>
       </c>
       <c r="S3">
-        <v>0.1308540392118499</v>
+        <v>0.04327660493792822</v>
       </c>
       <c r="T3">
-        <v>0.1902837069923169</v>
+        <v>0.06498600698209601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05619466666666666</v>
+        <v>0.05619466666666667</v>
       </c>
       <c r="H4">
         <v>0.168584</v>
       </c>
       <c r="I4">
-        <v>0.1635393031167574</v>
+        <v>0.04986276087265156</v>
       </c>
       <c r="J4">
-        <v>0.2267663493071267</v>
+        <v>0.07297477932340853</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6151326666666667</v>
+        <v>0.3580240000000001</v>
       </c>
       <c r="N4">
-        <v>1.845398</v>
+        <v>1.074072</v>
       </c>
       <c r="O4">
-        <v>0.0195010633686494</v>
+        <v>0.0123115721415754</v>
       </c>
       <c r="P4">
-        <v>0.0204510823908332</v>
+        <v>0.01263233735676886</v>
       </c>
       <c r="Q4">
-        <v>0.03456717515911111</v>
+        <v>0.02011903933866667</v>
       </c>
       <c r="R4">
-        <v>0.311104576432</v>
+        <v>0.181071354048</v>
       </c>
       <c r="S4">
-        <v>0.003189190313344648</v>
+        <v>0.000613888977661773</v>
       </c>
       <c r="T4">
-        <v>0.00463761729314851</v>
+        <v>0.0009218420309490576</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05619466666666666</v>
+        <v>0.05619466666666667</v>
       </c>
       <c r="H5">
         <v>0.168584</v>
       </c>
       <c r="I5">
-        <v>0.1635393031167574</v>
+        <v>0.04986276087265156</v>
       </c>
       <c r="J5">
-        <v>0.2267663493071267</v>
+        <v>0.07297477932340853</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.395899500000001</v>
+        <v>2.2152535</v>
       </c>
       <c r="N5">
-        <v>8.791799000000001</v>
+        <v>4.430507</v>
       </c>
       <c r="O5">
-        <v>0.139359717597582</v>
+        <v>0.07617716487477769</v>
       </c>
       <c r="P5">
-        <v>0.09743253526482903</v>
+        <v>0.05210792115009603</v>
       </c>
       <c r="Q5">
-        <v>0.2470261071026667</v>
+        <v>0.1244854320146667</v>
       </c>
       <c r="R5">
-        <v>1.482156642616</v>
+        <v>0.7469125920880001</v>
       </c>
       <c r="S5">
-        <v>0.02279079109845667</v>
+        <v>0.003798403756107592</v>
       </c>
       <c r="T5">
-        <v>0.02209442032574317</v>
+        <v>0.00380256404692983</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05619466666666666</v>
+        <v>0.05619466666666667</v>
       </c>
       <c r="H6">
         <v>0.168584</v>
       </c>
       <c r="I6">
-        <v>0.1635393031167574</v>
+        <v>0.04986276087265156</v>
       </c>
       <c r="J6">
-        <v>0.2267663493071267</v>
+        <v>0.07297477932340853</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5356743333333333</v>
+        <v>0.4093533333333334</v>
       </c>
       <c r="N6">
-        <v>1.607023</v>
+        <v>1.22806</v>
       </c>
       <c r="O6">
-        <v>0.01698205880675988</v>
+        <v>0.01407666272296744</v>
       </c>
       <c r="P6">
-        <v>0.01780936132853939</v>
+        <v>0.01444341553857988</v>
       </c>
       <c r="Q6">
-        <v>0.03010204060355555</v>
+        <v>0.02300347411555556</v>
       </c>
       <c r="R6">
-        <v>0.2709183654319999</v>
+        <v>0.20703126704</v>
       </c>
       <c r="S6">
-        <v>0.002777234062745302</v>
+        <v>0.0007019012672402939</v>
       </c>
       <c r="T6">
-        <v>0.004038563851964399</v>
+        <v>0.001054005061604157</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.287421</v>
+        <v>1.070792</v>
       </c>
       <c r="H7">
-        <v>0.574842</v>
+        <v>2.141584</v>
       </c>
       <c r="I7">
-        <v>0.8364606968832426</v>
+        <v>0.9501372391273485</v>
       </c>
       <c r="J7">
-        <v>0.7732336506928733</v>
+        <v>0.9270252206765914</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.757644</v>
+        <v>0.8584576666666667</v>
       </c>
       <c r="N7">
-        <v>2.272932</v>
+        <v>2.575373</v>
       </c>
       <c r="O7">
-        <v>0.02401898721285653</v>
+        <v>0.02952026538348031</v>
       </c>
       <c r="P7">
-        <v>0.02518910262217759</v>
+        <v>0.03028938521394646</v>
       </c>
       <c r="Q7">
-        <v>0.217762796124</v>
+        <v>0.9192296018053333</v>
       </c>
       <c r="R7">
-        <v>1.306576776744</v>
+        <v>5.515377610832</v>
       </c>
       <c r="S7">
-        <v>0.02009093878249567</v>
+        <v>0.02804830344976662</v>
       </c>
       <c r="T7">
-        <v>0.01947706177822381</v>
+        <v>0.028079024012117</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.287421</v>
+        <v>1.070792</v>
       </c>
       <c r="H8">
-        <v>0.574842</v>
+        <v>2.141584</v>
       </c>
       <c r="I8">
-        <v>0.8364606968832426</v>
+        <v>0.9501372391273485</v>
       </c>
       <c r="J8">
-        <v>0.7732336506928733</v>
+        <v>0.9270252206765914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>25.23919433333333</v>
       </c>
       <c r="N8">
-        <v>75.71758299999999</v>
+        <v>75.717583</v>
       </c>
       <c r="O8">
-        <v>0.8001381730141522</v>
+        <v>0.8679143348771993</v>
       </c>
       <c r="P8">
-        <v>0.8391179183936208</v>
+        <v>0.8905269407406087</v>
       </c>
       <c r="Q8">
-        <v>7.254274474480999</v>
+        <v>27.02592737857866</v>
       </c>
       <c r="R8">
-        <v>43.52564684688599</v>
+        <v>162.155564271472</v>
       </c>
       <c r="S8">
-        <v>0.6692841338023023</v>
+        <v>0.8246377299392711</v>
       </c>
       <c r="T8">
-        <v>0.6488342114013039</v>
+        <v>0.8255409337585126</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.287421</v>
+        <v>1.070792</v>
       </c>
       <c r="H9">
-        <v>0.574842</v>
+        <v>2.141584</v>
       </c>
       <c r="I9">
-        <v>0.8364606968832426</v>
+        <v>0.9501372391273485</v>
       </c>
       <c r="J9">
-        <v>0.7732336506928733</v>
+        <v>0.9270252206765914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6151326666666667</v>
+        <v>0.3580240000000001</v>
       </c>
       <c r="N9">
-        <v>1.845398</v>
+        <v>1.074072</v>
       </c>
       <c r="O9">
-        <v>0.0195010633686494</v>
+        <v>0.0123115721415754</v>
       </c>
       <c r="P9">
-        <v>0.0204510823908332</v>
+        <v>0.01263233735676886</v>
       </c>
       <c r="Q9">
-        <v>0.176802046186</v>
+        <v>0.3833692350080001</v>
       </c>
       <c r="R9">
-        <v>1.060812277116</v>
+        <v>2.300215410048</v>
       </c>
       <c r="S9">
-        <v>0.01631187305530475</v>
+        <v>0.01169768316391363</v>
       </c>
       <c r="T9">
-        <v>0.01581346509768469</v>
+        <v>0.01171049532581981</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.287421</v>
+        <v>1.070792</v>
       </c>
       <c r="H10">
-        <v>0.574842</v>
+        <v>2.141584</v>
       </c>
       <c r="I10">
-        <v>0.8364606968832426</v>
+        <v>0.9501372391273485</v>
       </c>
       <c r="J10">
-        <v>0.7732336506928733</v>
+        <v>0.9270252206765914</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.395899500000001</v>
+        <v>2.2152535</v>
       </c>
       <c r="N10">
-        <v>8.791799000000001</v>
+        <v>4.430507</v>
       </c>
       <c r="O10">
-        <v>0.139359717597582</v>
+        <v>0.07617716487477769</v>
       </c>
       <c r="P10">
-        <v>0.09743253526482903</v>
+        <v>0.05210792115009603</v>
       </c>
       <c r="Q10">
-        <v>1.2634738301895</v>
+        <v>2.372075725772</v>
       </c>
       <c r="R10">
-        <v>5.053895320758</v>
+        <v>9.488302903088</v>
       </c>
       <c r="S10">
-        <v>0.1165689264991254</v>
+        <v>0.0723787611186701</v>
       </c>
       <c r="T10">
-        <v>0.07533811493908588</v>
+        <v>0.0483053571031662</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.287421</v>
+        <v>1.070792</v>
       </c>
       <c r="H11">
-        <v>0.574842</v>
+        <v>2.141584</v>
       </c>
       <c r="I11">
-        <v>0.8364606968832426</v>
+        <v>0.9501372391273485</v>
       </c>
       <c r="J11">
-        <v>0.7732336506928733</v>
+        <v>0.9270252206765914</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.5356743333333333</v>
+        <v>0.4093533333333334</v>
       </c>
       <c r="N11">
-        <v>1.607023</v>
+        <v>1.22806</v>
       </c>
       <c r="O11">
-        <v>0.01698205880675988</v>
+        <v>0.01407666272296744</v>
       </c>
       <c r="P11">
-        <v>0.01780936132853939</v>
+        <v>0.01444341553857988</v>
       </c>
       <c r="Q11">
-        <v>0.153964052561</v>
+        <v>0.4383322745066667</v>
       </c>
       <c r="R11">
-        <v>0.9237843153659999</v>
+        <v>2.62999364704</v>
       </c>
       <c r="S11">
-        <v>0.01420482474401457</v>
+        <v>0.01337476145572715</v>
       </c>
       <c r="T11">
-        <v>0.01377079747657499</v>
+        <v>0.01338941047697573</v>
       </c>
     </row>
   </sheetData>
